--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
-    <sheet name="ISO_Bank_Transfer" sheetId="2" r:id="rId2"/>
+    <sheet name="InComing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,159 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Instructed Agent Bic</t>
-  </si>
-  <si>
-    <t>Transaction Currency</t>
-  </si>
-  <si>
-    <t>Transaction Amount</t>
-  </si>
-  <si>
-    <t>Debit Account Number</t>
-  </si>
-  <si>
-    <t>Debit Account Currency</t>
-  </si>
-  <si>
-    <t>Creditor Account</t>
-  </si>
-  <si>
-    <t>Creditor Name</t>
-  </si>
-  <si>
-    <t>Charge Option</t>
-  </si>
-  <si>
-    <t>inputStreetPage</t>
-  </si>
-  <si>
-    <t>Street Name</t>
-  </si>
-  <si>
-    <t>Town Name</t>
-  </si>
-  <si>
-    <t>Creditor Country</t>
-  </si>
-  <si>
-    <t>Post Code</t>
-  </si>
-  <si>
-    <t>Debit Account Number1</t>
-  </si>
-  <si>
-    <t>Debit Name</t>
-  </si>
-  <si>
-    <t>Street Name1</t>
-  </si>
-  <si>
-    <t>Post Code1</t>
-  </si>
-  <si>
-    <t>Town Name1</t>
-  </si>
-  <si>
-    <t>Debtor Country</t>
-  </si>
-  <si>
-    <t>FindAccountPage</t>
+    <t>FTNumber</t>
   </si>
   <si>
     <t>Arrangement</t>
   </si>
   <si>
-    <t>是否填入BIC</t>
+    <t>Currency</t>
   </si>
   <si>
-    <t>output Channel</t>
+    <t>SGL23349JBFBKDFD</t>
   </si>
   <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>LEI</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
-  </si>
-  <si>
-    <t>liyukang</t>
-  </si>
-  <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>LEN&amp;DEB</t>
-  </si>
-  <si>
-    <t>honghai</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>BIC不填写不会选择Output Channel选择以及页面不填写BIC</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New&amp;(2)',.e</t>
-  </si>
-  <si>
-    <t>jia&amp;(1)',.1H</t>
-  </si>
-  <si>
-    <t>FR</t>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -188,21 +49,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="20">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -354,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,18 +217,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,85 +533,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,10 +626,10 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,10 +638,10 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,10 +650,10 @@
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,10 +662,10 @@
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,46 +674,19 @@
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1401,231 +1221,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="21.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="14.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="23.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="17.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="11.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="10.8888888888889" customWidth="1"/>
-    <col min="19" max="19" width="16.2222222222222" customWidth="1"/>
-    <col min="20" max="20" width="21" customWidth="1"/>
-    <col min="21" max="21" width="12.8888888888889"/>
-    <col min="22" max="23" width="23.7777777777778" customWidth="1"/>
-    <col min="24" max="24" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:24">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3">
-        <v>906</v>
-      </c>
-      <c r="D2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3">
-        <v>56456465</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3">
-        <v>12345</v>
-      </c>
-      <c r="N2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>23456</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>123</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="20.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="15.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="21.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="15.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="15.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="20.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="21.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="28.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="21.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="29.4444444444444" customWidth="1"/>
-    <col min="18" max="18" width="18.4444444444444" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1633,117 +1243,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="2">
+        <v>11020433604</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3">
-        <v>901</v>
-      </c>
-      <c r="D2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4656465</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5">
-        <v>123</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="6">
-        <v>11010006762</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,10 +38,22 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL23349JBFBKDFD</t>
+    <t>SGL24340MGBBMCGC</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SGL24340DJKLD0LJ</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>SGL243400DJMMFFH</t>
+  </si>
+  <si>
+    <t>AED</t>
   </si>
 </sst>
 </file>
@@ -678,12 +690,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1221,38 +1242,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>11020433604</v>
+      <c r="B2" s="3">
+        <v>11020880570</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11020880570</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11020880570</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,19 +38,31 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24340MGBBMCGC</t>
+    <t>SGL24340GHHBJBBD</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>SGL24340DJKLD0LJ</t>
+    <t>SGL24340M0CGJFMF</t>
   </si>
   <si>
     <t>CNY</t>
   </si>
   <si>
-    <t>SGL243400DJMMFFH</t>
+    <t>SGL243400LJGCMKL</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SGL24340KLKJDFFF</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>SGL24340BLKB0LFJ</t>
   </si>
   <si>
     <t>AED</t>
@@ -706,8 +718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1242,13 +1254,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
@@ -1281,7 +1293,7 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>11020880570</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1292,11 +1304,33 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>11020880570</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11020880570</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11020880570</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,34 +38,46 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24340GHHBJBBD</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>SGL24340M0CGJFMF</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>SGL243400LJGCMKL</t>
+    <t>SGL24341GBDDJJJB</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGL24341DDD0H0G0</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SGL24341GHF0MDD0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>SGL24341DGHC0KFJ</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SGL243410MGCJHCK</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL24341DCMLBGKC</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>SGL24340KLKJDFFF</t>
+    <t>SGL24341FMDLCCFM</t>
   </si>
   <si>
     <t>NOK</t>
-  </si>
-  <si>
-    <t>SGL24340BLKB0LFJ</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
 </sst>
 </file>
@@ -1254,13 +1266,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
@@ -1312,25 +1324,47 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>11020880570</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>11020880570</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11020880570</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11020880570</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,46 +38,34 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24341GBDDJJJB</t>
+    <t>SGL24341B0DLBCMC</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>SGL24341DDD0H0G0</t>
+    <t>SGL24341JLFCKJLD</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
-    <t>SGL24341GHF0MDD0</t>
+    <t>SGL243410CHDLCML</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>SGL24341DGHC0KFJ</t>
+    <t>SGL24341DCGLFHKJ</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>SGL243410MGCJHCK</t>
+    <t>SGL24341BKGCGDHB</t>
   </si>
   <si>
     <t>AUD</t>
-  </si>
-  <si>
-    <t>SGL24341DCMLBGKC</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SGL24341FMDLCCFM</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -714,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1266,13 +1251,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
@@ -1345,28 +1330,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11020880570</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>11020880570</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -38,34 +38,34 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24341B0DLBCMC</t>
+    <t>SGL24345KBKCMJCH</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>SGL24341JLFCKJLD</t>
+    <t>SGL24345LJLLJFHF</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
-    <t>SGL243410CHDLCML</t>
+    <t>SGL24345BMGBDJCB</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>SGL24341DCGLFHKJ</t>
+    <t>SGL243450GCBBHD0</t>
   </si>
   <si>
-    <t>JPY</t>
+    <t>GBP</t>
   </si>
   <si>
-    <t>SGL24341BKGCGDHB</t>
+    <t>SGL24345FLGJMLMJ</t>
   </si>
   <si>
-    <t>AUD</t>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -38,31 +38,31 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24345KBKCMJCH</t>
+    <t>SGL24345DHJKLGCL</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>SGL24345LJLLJFHF</t>
+    <t>SGL24345DJHMFBCB</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
-    <t>SGL24345BMGBDJCB</t>
+    <t>SGL243450GCCC0JH</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>SGL243450GCBBHD0</t>
+    <t>SGL24345HDK0CMFJ</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>SGL24345FLGJMLMJ</t>
+    <t>SGL24345MCHLGGGK</t>
   </si>
   <si>
     <t>NOK</t>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>11020944242</v>
+        <v>11020880570</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>11020944242</v>
+        <v>11020880570</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>11020944242</v>
+        <v>11020880570</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>11020944242</v>
+        <v>11020880570</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -38,34 +38,34 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24345DHJKLGCL</t>
+    <t>SGL24345DHCMMKDL</t>
   </si>
   <si>
-    <t>SGD</t>
+    <t>USD</t>
   </si>
   <si>
-    <t>SGL24345DJHMFBCB</t>
+    <t>SGL24345MFHMKBBL</t>
   </si>
   <si>
-    <t>HKD</t>
+    <t>CNY</t>
   </si>
   <si>
-    <t>SGL243450GCCC0JH</t>
+    <t>SGL24345KBJHDK0K</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>AED</t>
   </si>
   <si>
-    <t>SGL24345HDK0CMFJ</t>
+    <t>SGL24345B0JFBJBK</t>
   </si>
   <si>
-    <t>GBP</t>
+    <t>JPY</t>
   </si>
   <si>
-    <t>SGL24345MCHLGGGK</t>
+    <t>SGL24345DLMKJMB0</t>
   </si>
   <si>
-    <t>NOK</t>
+    <t>AUD</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>11020880570</v>
+        <v>11020944242</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -38,31 +38,31 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24345DHCMMKDL</t>
+    <t>SGL24345MFDLFFDF</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>SGL24345MFHMKBBL</t>
+    <t>SGL24345HHMMGBC0</t>
   </si>
   <si>
     <t>CNY</t>
   </si>
   <si>
-    <t>SGL24345KBJHDK0K</t>
+    <t>SGL24345LHLJCK00</t>
   </si>
   <si>
     <t>AED</t>
   </si>
   <si>
-    <t>SGL24345B0JFBJBK</t>
+    <t>SGL24345HHGLDDFG</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>SGL24345DLMKJMB0</t>
+    <t>SGL24345BMCDJMDG</t>
   </si>
   <si>
     <t>AUD</t>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,31 +38,25 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24345MFDLFFDF</t>
+    <t>SGL24345GG00KG00</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>SGD</t>
   </si>
   <si>
-    <t>SGL24345HHMMGBC0</t>
+    <t>SGL24345KBJJCC0C</t>
   </si>
   <si>
-    <t>CNY</t>
+    <t>HKD</t>
   </si>
   <si>
-    <t>SGL24345LHLJCK00</t>
+    <t>SGL243450JDCKKBB</t>
   </si>
   <si>
-    <t>AED</t>
+    <t>EUR</t>
   </si>
   <si>
-    <t>SGL24345HHGLDDFG</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>SGL24345BMCDJMDG</t>
+    <t>SGL24345BCHDH0GD</t>
   </si>
   <si>
     <t>AUD</t>
@@ -1251,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
@@ -1319,17 +1313,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,28 +38,40 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24345GG00KG00</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>SGL24345KBJJCC0C</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>SGL243450JDCKKBB</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>SGL24345BCHDH0GD</t>
-  </si>
-  <si>
-    <t>AUD</t>
+    <t>SGL24346DDDCCBFL</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SGL24346MB00JCF0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>SGL24346CJMMJFLM</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SGL24346GMLKDKGG</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>SGL243460CLD0CJH</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SGL24346GLKDBGLJ</t>
+  </si>
+  <si>
+    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1245,13 +1260,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
@@ -1313,6 +1328,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11020944242</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11020944242</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,40 +38,319 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL24346DDDCCBFL</t>
+    <t>案例</t>
+  </si>
+  <si>
+    <t>SGL24362LLMKK00C</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>T24-MT103-001-1</t>
+  </si>
+  <si>
+    <t>SGL24362BJMKLL0B</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SGL24362GB0DHHDK</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>SGL24362MJFDCKMG</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SGL243620CKD0DBG</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SGL24362FLCHMJBC</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>SGL24362DBJJ0LFH</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>SGL24346MB00JCF0</t>
+    <t>T24-MT103-001-2</t>
+  </si>
+  <si>
+    <t>SGL24362GHCLJHJD</t>
   </si>
   <si>
     <t>CNY</t>
   </si>
   <si>
-    <t>SGL24346CJMMJFLM</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SGL24346GMLKDKGG</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>SGL243460CLD0CJH</t>
+    <t>SGL24362DH0FK0JG</t>
   </si>
   <si>
     <t>AED</t>
   </si>
   <si>
-    <t>SGL24346GLKDBGLJ</t>
-  </si>
-  <si>
-    <t>JPY</t>
+    <t>SGL24362HGKJDKJK</t>
+  </si>
+  <si>
+    <t>T24-MT202-001-1</t>
+  </si>
+  <si>
+    <t>SGL24362DLCMKH0C</t>
+  </si>
+  <si>
+    <t>SGL24362FBDGHJ0H</t>
+  </si>
+  <si>
+    <t>SGL24362CMH0FHKG</t>
+  </si>
+  <si>
+    <t>SGL24362LMB0JGFF</t>
+  </si>
+  <si>
+    <t>T24-MT202-001-2</t>
+  </si>
+  <si>
+    <t>SGL24362FCDGFLMK</t>
+  </si>
+  <si>
+    <t>SGL24362LLBGKGGM</t>
+  </si>
+  <si>
+    <t>SGL24362BGDFCCCG</t>
+  </si>
+  <si>
+    <t>SGL24362JBMBMBMB</t>
+  </si>
+  <si>
+    <t>SGL24362CFFFKGLC</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-001-1</t>
+  </si>
+  <si>
+    <t>SGL24362HLFMDL00</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-001-2</t>
+  </si>
+  <si>
+    <t>SGL24362BMHBKDCB</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-002-1</t>
+  </si>
+  <si>
+    <t>SGL24362HFMCJMJJ</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-002-2</t>
+  </si>
+  <si>
+    <t>SGL24362MGGGLGMB</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-003-1</t>
+  </si>
+  <si>
+    <t>SGL24362C0DJHJDG</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-004-1</t>
+  </si>
+  <si>
+    <t>SGL243620MFBFMGM</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-001-1</t>
+  </si>
+  <si>
+    <t>SGL24362H0DKLGH0</t>
+  </si>
+  <si>
+    <t>SGL24362BJCDJMHG</t>
+  </si>
+  <si>
+    <t>SGL24362FKGGHKMC</t>
+  </si>
+  <si>
+    <t>SGL24362JDJD0F0J</t>
+  </si>
+  <si>
+    <t>SGL243620KKBJJLC</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-001-2</t>
+  </si>
+  <si>
+    <t>SGL24362BGGFGGGJ</t>
+  </si>
+  <si>
+    <t>SGL24362L0L0GMDL</t>
+  </si>
+  <si>
+    <t>SGL2436200LLCMMM</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL24362LGFMD0MD</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-002-1</t>
+  </si>
+  <si>
+    <t>SGL24362JGKKBHLK</t>
+  </si>
+  <si>
+    <t>SGL24362DGJJJLHL</t>
+  </si>
+  <si>
+    <t>SGL24362BH0CBFHJ</t>
+  </si>
+  <si>
+    <t>SGL24362JJJ00JCL</t>
+  </si>
+  <si>
+    <t>SGL24362CKHDBGJF</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-002-2</t>
+  </si>
+  <si>
+    <t>SGL24362FKMMLFJD</t>
+  </si>
+  <si>
+    <t>SGL243620FKBKLCL</t>
+  </si>
+  <si>
+    <t>SGL24362CJBFMCHF</t>
+  </si>
+  <si>
+    <t>T24-Limit-001-1</t>
+  </si>
+  <si>
+    <t>SGL24362HFDBFFLH</t>
+  </si>
+  <si>
+    <t>T24-Limit-001-2</t>
+  </si>
+  <si>
+    <t>SGL24362CFHDGJKF</t>
+  </si>
+  <si>
+    <t>T24-Limit-002-1</t>
+  </si>
+  <si>
+    <t>SGL24362HCDMBJGB</t>
+  </si>
+  <si>
+    <t>T24-Limit-002-2</t>
+  </si>
+  <si>
+    <t>SGL24363GDLMKBMD</t>
+  </si>
+  <si>
+    <t>SGL24363HLLMDJJJ</t>
+  </si>
+  <si>
+    <t>SGL24363GH00MCKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL24363DFDGGLDM </t>
+  </si>
+  <si>
+    <t>SGL24363MFJBCBKL</t>
+  </si>
+  <si>
+    <t>SGL24363FLHKKCFD</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-003-2</t>
+  </si>
+  <si>
+    <t>SGL24363DKDKHHKL</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-004-2</t>
+  </si>
+  <si>
+    <t>SGL24363BFKLBG0J</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-005-1</t>
+  </si>
+  <si>
+    <t>SGL24363KKFGCDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL24363CCGDKGJG </t>
+  </si>
+  <si>
+    <t>SGL24363JBCJLKBL</t>
+  </si>
+  <si>
+    <t>SGL243630LMLB0BL</t>
+  </si>
+  <si>
+    <t>SGL24363D0HGFBMF</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-005-2</t>
+  </si>
+  <si>
+    <t>SGL24363JDGHLFMH</t>
+  </si>
+  <si>
+    <t>SGL24363CBJJMLCB</t>
+  </si>
+  <si>
+    <t>SGL24363LFJMHJBL</t>
+  </si>
+  <si>
+    <t>SGL24363GLGFMH0G</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-006-1</t>
+  </si>
+  <si>
+    <t>SGL24363LMC0LJL0</t>
+  </si>
+  <si>
+    <t>SGL24363DDG0BJDJ</t>
+  </si>
+  <si>
+    <t>SGL24363JGH0JDK0</t>
+  </si>
+  <si>
+    <t>SGL243630FGK0JFH</t>
+  </si>
+  <si>
+    <t>SGL24363BKKJBF00</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-006-2</t>
+  </si>
+  <si>
+    <t>SGL24363BM00DCDL</t>
+  </si>
+  <si>
+    <t>SGL243630M0C0HHF</t>
+  </si>
+  <si>
+    <t>SGL24363HDHDFLC0</t>
   </si>
 </sst>
 </file>
@@ -84,13 +363,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -237,12 +522,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -578,55 +869,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,91 +929,109 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1260,20 +1566,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A47" sqref="$A47:$XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1283,72 +1590,1259 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="4">
+        <v>11010009923</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>11010009931</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11010009958</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11021226114</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11010009974</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11021226122</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11021225622</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>11010009982</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11010009915</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11010009931</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11010009958</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7">
+        <v>11021226114</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11010009915</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11010009982</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11010009974</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11021226122</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="7">
+        <v>11010009982</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="7">
+        <v>11010009974</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="7">
+        <v>11021226114</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="7">
+        <v>11021226122</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7">
+        <v>11010009931</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11010009958</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11010009907</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="7">
+        <v>11010009931</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11021226114</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="7">
+        <v>11010009958</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="7">
+        <v>11021226122</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="7">
+        <v>11010009982</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="7">
+        <v>11010009974</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4">
+        <v>11010009907</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="7">
+        <v>11010009907</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="7">
+        <v>11010009907</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="7">
+        <v>11010009915</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="7">
+        <v>11010009915</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="7">
+        <v>11021225614</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="7">
+        <v>11010009931</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D55" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="7">
+        <v>11010009958</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D56" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="7">
+        <v>11010009974</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="7">
+        <v>11021226122</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="7">
+        <v>11010009982</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="7">
+        <v>11010009915</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="7">
+        <v>11021226114</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11020944242</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D62" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7">
+        <v>11010009907</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="7">
+        <v>11010009923</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="7">
+        <v>11010009931</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="7">
+        <v>11010009958</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="7">
+        <v>11010009974</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="D67" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="7">
+        <v>11021226122</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="7">
+        <v>11021225622</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="7">
+        <v>11010009982</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="7">
+        <v>11010009915</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="7">
+        <v>11021226114</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A47" sqref="$A47:$XFD47"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1720,129 +1720,129 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>11010009923</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>11010009931</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>11010009958</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>11021226114</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>11010009915</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>11021225622</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>11010009982</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>11010009974</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>11021226122</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>11010009907</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>FTNumber</t>
   </si>
@@ -50,19 +50,19 @@
     <t>T24-MT103-001-1</t>
   </si>
   <si>
-    <t>SGL24362BJMKLL0B</t>
+    <t>SGL24364DGM0FFKJ</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
-    <t>SGL24362GB0DHHDK</t>
+    <t>SGL24364CH0CGKDB</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>SGL24362MJFDCKMG</t>
+    <t>SGL24364GMFCLLF0</t>
   </si>
   <si>
     <t>JPY</t>
@@ -74,13 +74,19 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>SGL24362FLCHMJBC</t>
+    <t>SGL24364DK0DLLHH</t>
   </si>
   <si>
     <t>NOK</t>
   </si>
   <si>
-    <t>SGL24362DBJJ0LFH</t>
+    <t>SGL24363GDLMKBMD</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL243630KCDFJFM</t>
   </si>
   <si>
     <t>USD</t>
@@ -89,7 +95,7 @@
     <t>T24-MT103-001-2</t>
   </si>
   <si>
-    <t>SGL24362GHCLJHJD</t>
+    <t>SGL243630HDMHDGH</t>
   </si>
   <si>
     <t>CNY</t>
@@ -107,13 +113,16 @@
     <t>T24-MT202-001-1</t>
   </si>
   <si>
-    <t>SGL24362DLCMKH0C</t>
-  </si>
-  <si>
-    <t>SGL24362FBDGHJ0H</t>
-  </si>
-  <si>
-    <t>SGL24362CMH0FHKG</t>
+    <t>SGL24364DMBJJFBK</t>
+  </si>
+  <si>
+    <t>SGL243640MKMCCLB</t>
+  </si>
+  <si>
+    <t>SGL24364KDFDJLLC</t>
+  </si>
+  <si>
+    <t>SGL24363HLLMDJJJ</t>
   </si>
   <si>
     <t>SGL24362LMB0JGFF</t>
@@ -122,19 +131,19 @@
     <t>T24-MT202-001-2</t>
   </si>
   <si>
-    <t>SGL24362FCDGFLMK</t>
-  </si>
-  <si>
-    <t>SGL24362LLBGKGGM</t>
+    <t>SGL24364GDKGLHCH</t>
+  </si>
+  <si>
+    <t>SGL24364DLLDDJKM</t>
   </si>
   <si>
     <t>SGL24362BGDFCCCG</t>
   </si>
   <si>
-    <t>SGL24362JBMBMBMB</t>
-  </si>
-  <si>
-    <t>SGL24362CFFFKGLC</t>
+    <t>SGL24364CKCHFCFD</t>
+  </si>
+  <si>
+    <t>SGL24364GKBKKHHM</t>
   </si>
   <si>
     <t>T24-SGMEPS-001-1</t>
@@ -146,7 +155,7 @@
     <t>T24-SGMEPS-001-2</t>
   </si>
   <si>
-    <t>SGL24362BMHBKDCB</t>
+    <t>SGL24364GDKFGBGL</t>
   </si>
   <si>
     <t>T24-SGMEPS-002-1</t>
@@ -158,34 +167,49 @@
     <t>T24-SGMEPS-002-2</t>
   </si>
   <si>
-    <t>SGL24362MGGGLGMB</t>
+    <t>SGL24364HHDJCHGK</t>
   </si>
   <si>
     <t>T24-SGMEPS-003-1</t>
   </si>
   <si>
-    <t>SGL24362C0DJHJDG</t>
+    <t>SGL24363HMMFCLBJ</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-003-2</t>
+  </si>
+  <si>
+    <t>SGL24364MKCKDJLL</t>
   </si>
   <si>
     <t>T24-SGMEPS-004-1</t>
   </si>
   <si>
-    <t>SGL243620MFBFMGM</t>
+    <t>SGL24363CKMKJHMB</t>
+  </si>
+  <si>
+    <t>T24-SGMEPS-004-2</t>
+  </si>
+  <si>
+    <t>SGL24364DKMGGLFB</t>
   </si>
   <si>
     <t>T24-CBPRMX-001-1</t>
   </si>
   <si>
-    <t>SGL24362H0DKLGH0</t>
+    <t>SGL2436400FDJFJC</t>
   </si>
   <si>
     <t>SGL24362BJCDJMHG</t>
   </si>
   <si>
-    <t>SGL24362FKGGHKMC</t>
-  </si>
-  <si>
-    <t>SGL24362JDJD0F0J</t>
+    <t>SGL24364CFLC0HMF</t>
+  </si>
+  <si>
+    <t>SGL24364FLKFLLKJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL24363DFDGGLDM </t>
   </si>
   <si>
     <t>SGL243620KKBJJLC</t>
@@ -194,48 +218,123 @@
     <t>T24-CBPRMX-001-2</t>
   </si>
   <si>
-    <t>SGL24362BGGFGGGJ</t>
-  </si>
-  <si>
-    <t>SGL24362L0L0GMDL</t>
+    <t>SGL24363FJCCGLLC</t>
+  </si>
+  <si>
+    <t>SGL24363KBDHGKLD</t>
   </si>
   <si>
     <t>SGL2436200LLCMMM</t>
   </si>
   <si>
-    <t>AUD</t>
-  </si>
-  <si>
     <t>SGL24362LGFMD0MD</t>
   </si>
   <si>
     <t>T24-CBPRMX-002-1</t>
   </si>
   <si>
-    <t>SGL24362JGKKBHLK</t>
-  </si>
-  <si>
-    <t>SGL24362DGJJJLHL</t>
-  </si>
-  <si>
-    <t>SGL24362BH0CBFHJ</t>
-  </si>
-  <si>
-    <t>SGL24362JJJ00JCL</t>
-  </si>
-  <si>
-    <t>SGL24362CKHDBGJF</t>
+    <t>SGL24363H0BF0D0H</t>
+  </si>
+  <si>
+    <t>SGL24363HLJFJHDF</t>
+  </si>
+  <si>
+    <t>SGL24363BJHJKHBG</t>
+  </si>
+  <si>
+    <t>SGL24363KLL0LKFG</t>
+  </si>
+  <si>
+    <t>SGL24363GH00MCKL</t>
+  </si>
+  <si>
+    <t>SGL24363MFJBCBKL</t>
+  </si>
+  <si>
+    <t>SGL24363FFCGFMJM</t>
   </si>
   <si>
     <t>T24-CBPRMX-002-2</t>
   </si>
   <si>
-    <t>SGL24362FKMMLFJD</t>
+    <t>SGL24363CCDJGG0H</t>
   </si>
   <si>
     <t>SGL243620FKBKLCL</t>
   </si>
   <si>
+    <t>SGL24363BFKLBG0J</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-005-1</t>
+  </si>
+  <si>
+    <t>SGL24364GGLMKHFD</t>
+  </si>
+  <si>
+    <t>SGL24364KGJMBK00</t>
+  </si>
+  <si>
+    <t>SGL24363JBCJLKBL</t>
+  </si>
+  <si>
+    <t>SGL24364C0JFJHHB</t>
+  </si>
+  <si>
+    <t>SGL24364HFLJJCH0</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-005-2</t>
+  </si>
+  <si>
+    <t>SGL24364DHKFJGCJ</t>
+  </si>
+  <si>
+    <t>SGL24363CBJJMLCB</t>
+  </si>
+  <si>
+    <t>SGL24364HBMGCFFM</t>
+  </si>
+  <si>
+    <t>SGL24364CC00CCDF</t>
+  </si>
+  <si>
+    <t>SGL24363GLGFMH0G</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-006-1</t>
+  </si>
+  <si>
+    <t>SGL24364B0G0JDKF</t>
+  </si>
+  <si>
+    <t>SGL24364KCJHKLLH</t>
+  </si>
+  <si>
+    <t>SGL24363JGH0JDK0</t>
+  </si>
+  <si>
+    <t>SGL24364BGGL0GKH</t>
+  </si>
+  <si>
+    <t>SGL24364DGL0LJML</t>
+  </si>
+  <si>
+    <t>T24-CBPRMX-006-2</t>
+  </si>
+  <si>
+    <t>SGL243640FCJMLJG</t>
+  </si>
+  <si>
+    <t>SGL243630M0C0HHF</t>
+  </si>
+  <si>
+    <t>SGL24364FLDFC0GH</t>
+  </si>
+  <si>
+    <t>SGL24364DGLLCLKK</t>
+  </si>
+  <si>
     <t>SGL24362CJBFMCHF</t>
   </si>
   <si>
@@ -248,109 +347,16 @@
     <t>T24-Limit-001-2</t>
   </si>
   <si>
-    <t>SGL24362CFHDGJKF</t>
+    <t>SGL24363BDLMGLDB</t>
   </si>
   <si>
     <t>T24-Limit-002-1</t>
   </si>
   <si>
-    <t>SGL24362HCDMBJGB</t>
+    <t>SGL24363HDHJCGH0</t>
   </si>
   <si>
     <t>T24-Limit-002-2</t>
-  </si>
-  <si>
-    <t>SGL24363GDLMKBMD</t>
-  </si>
-  <si>
-    <t>SGL24363HLLMDJJJ</t>
-  </si>
-  <si>
-    <t>SGL24363GH00MCKL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGL24363DFDGGLDM </t>
-  </si>
-  <si>
-    <t>SGL24363MFJBCBKL</t>
-  </si>
-  <si>
-    <t>SGL24363FLHKKCFD</t>
-  </si>
-  <si>
-    <t>T24-SGMEPS-003-2</t>
-  </si>
-  <si>
-    <t>SGL24363DKDKHHKL</t>
-  </si>
-  <si>
-    <t>T24-SGMEPS-004-2</t>
-  </si>
-  <si>
-    <t>SGL24363BFKLBG0J</t>
-  </si>
-  <si>
-    <t>T24-CBPRMX-005-1</t>
-  </si>
-  <si>
-    <t>SGL24363KKFGCDBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGL24363CCGDKGJG </t>
-  </si>
-  <si>
-    <t>SGL24363JBCJLKBL</t>
-  </si>
-  <si>
-    <t>SGL243630LMLB0BL</t>
-  </si>
-  <si>
-    <t>SGL24363D0HGFBMF</t>
-  </si>
-  <si>
-    <t>T24-CBPRMX-005-2</t>
-  </si>
-  <si>
-    <t>SGL24363JDGHLFMH</t>
-  </si>
-  <si>
-    <t>SGL24363CBJJMLCB</t>
-  </si>
-  <si>
-    <t>SGL24363LFJMHJBL</t>
-  </si>
-  <si>
-    <t>SGL24363GLGFMH0G</t>
-  </si>
-  <si>
-    <t>T24-CBPRMX-006-1</t>
-  </si>
-  <si>
-    <t>SGL24363LMC0LJL0</t>
-  </si>
-  <si>
-    <t>SGL24363DDG0BJDJ</t>
-  </si>
-  <si>
-    <t>SGL24363JGH0JDK0</t>
-  </si>
-  <si>
-    <t>SGL243630FGK0JFH</t>
-  </si>
-  <si>
-    <t>SGL24363BKKJBF00</t>
-  </si>
-  <si>
-    <t>T24-CBPRMX-006-2</t>
-  </si>
-  <si>
-    <t>SGL24363BM00DCDL</t>
-  </si>
-  <si>
-    <t>SGL243630M0C0HHF</t>
-  </si>
-  <si>
-    <t>SGL24363HDHDFLC0</t>
   </si>
 </sst>
 </file>
@@ -363,13 +369,25 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.6"/>
@@ -522,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,7 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,58 +899,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,105 +956,123 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,8 +1610,8 @@
   <sheetPr/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1581,27 +1623,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>11010009923</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1609,55 +1651,55 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>11010009931</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
-        <v>11010009958</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>11021226114</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>11010009974</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1665,1184 +1707,1194 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
-        <v>11021226122</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>11021225622</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>11010009907</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
-        <v>11010009982</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
         <v>11010009915</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11010009923</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
+        <v>11010009907</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <v>11010009915</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5">
+        <v>11010009974</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9">
+        <v>11010009923</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9">
+        <v>11010009923</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9">
+        <v>11010009923</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="5">
+        <v>11010009974</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="5">
+        <v>11010009915</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11010009931</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="5">
+        <v>11010009923</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11021217271</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11010009907</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="11">
+        <v>11010009907</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="11">
+        <v>11010009915</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4">
-        <v>11010009958</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D46" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="A47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="A48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="11">
+        <v>11010009974</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="11">
+        <v>11010009974</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="11">
+        <v>11010009915</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4">
-        <v>11021226114</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D57" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D58" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="9">
+        <v>11010009907</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="11">
+        <v>11010009974</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="11">
+        <v>11010009915</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11010009915</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4">
-        <v>11021225622</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D67" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="9">
+        <v>11010009907</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4">
-        <v>11010009982</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4">
-        <v>11010009974</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4">
-        <v>11021226122</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D69" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="11">
+        <v>11010009923</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="D70" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C71" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="7">
-        <v>11010009982</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7">
-        <v>11010009974</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="7">
-        <v>11021226114</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="7">
-        <v>11021226122</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="7">
-        <v>11010009931</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="7">
-        <v>11010009958</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11010009907</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="7">
-        <v>11010009931</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="7">
-        <v>11021226114</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="7">
-        <v>11010009958</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="7">
-        <v>11021226122</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="7">
-        <v>11010009982</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="7">
-        <v>11010009974</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="4">
-        <v>11010009907</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="4">
-        <v>11010009907</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="7">
-        <v>11010009907</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="7">
-        <v>11010009915</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="7">
-        <v>11010009915</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="7">
-        <v>11021225614</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="7">
-        <v>11010009931</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="7">
-        <v>11010009958</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="7">
-        <v>11010009974</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="7">
-        <v>11021226122</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="7">
-        <v>11010009982</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="7">
-        <v>11010009915</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="7">
-        <v>11021226114</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7">
-        <v>11010009907</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="7">
-        <v>11010009923</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="7">
-        <v>11010009931</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="7">
-        <v>11010009958</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="7">
-        <v>11010009974</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="7">
-        <v>11021226122</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="7">
-        <v>11021225622</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="7" t="s">
+      <c r="D71" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="7">
-        <v>11010009982</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="7" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="7">
-        <v>11010009915</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="7">
-        <v>11021226114</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -540,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,7 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +911,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,16 +935,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -947,89 +953,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,7 +1045,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1051,22 +1060,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1610,8 +1619,8 @@
   <sheetPr/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1623,1278 +1632,1278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>11010009923</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>11010009974</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>11010009907</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>11010009915</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>11010009923</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>11010009907</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>11010009915</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:4">
-      <c r="A20" s="5" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>11010009974</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:4">
+      <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:4">
-      <c r="A32" s="5" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:4">
+      <c r="A32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>11010009974</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:4">
+      <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:4">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:4">
+      <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:4">
-      <c r="A35" s="5" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>11010009915</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:4">
-      <c r="A36" s="5" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>11010009923</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:4">
-      <c r="A37" s="5" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:4">
-      <c r="A38" s="5" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="5">
-        <v>11021217271</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="6">
+        <v>11021217271</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:4">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <v>11010009907</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:4">
+      <c r="A40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>11010009923</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+    <row r="41" s="2" customFormat="1" spans="1:4">
+      <c r="A41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
+    <row r="42" s="2" customFormat="1" spans="1:4">
+      <c r="A42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
+    <row r="43" s="2" customFormat="1" spans="1:4">
+      <c r="A43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+    <row r="44" s="2" customFormat="1" spans="1:4">
+      <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
+    <row r="45" s="2" customFormat="1" spans="1:4">
+      <c r="A45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="12">
         <v>11010009907</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
+    <row r="46" s="2" customFormat="1" spans="1:4">
+      <c r="A46" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="12">
         <v>11010009915</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:4">
-      <c r="A47" s="11" t="s">
+    <row r="47" s="3" customFormat="1" spans="1:4">
+      <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:4">
-      <c r="A48" s="11" t="s">
+    <row r="48" s="3" customFormat="1" spans="1:4">
+      <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
+    <row r="49" s="2" customFormat="1" spans="1:4">
+      <c r="A49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="12">
         <v>11010009974</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>11010009974</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>11010009915</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>11010009907</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>11010009974</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>11010009915</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>11010009907</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="10">
+        <v>11021217271</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="10">
+        <v>11021217271</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -540,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +917,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,16 +941,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -953,89 +959,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,10 +1078,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1619,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2275,7 +2290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:4">
+    <row r="47" s="2" customFormat="1" spans="1:4">
       <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:4">
+    <row r="48" s="2" customFormat="1" spans="1:4">
       <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
@@ -2317,143 +2332,143 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10" t="s">
+    <row r="50" s="3" customFormat="1" spans="1:4">
+      <c r="A50" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="14">
         <v>11010009923</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
+    <row r="51" s="3" customFormat="1" spans="1:4">
+      <c r="A51" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
+    <row r="52" s="3" customFormat="1" spans="1:4">
+      <c r="A52" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="10" t="s">
+    <row r="53" s="3" customFormat="1" spans="1:4">
+      <c r="A53" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="14">
         <v>11010009974</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
+    <row r="54" s="3" customFormat="1" spans="1:4">
+      <c r="A54" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
+    <row r="55" s="3" customFormat="1" spans="1:4">
+      <c r="A55" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
+    <row r="56" s="3" customFormat="1" spans="1:4">
+      <c r="A56" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="10" t="s">
+    <row r="57" s="3" customFormat="1" spans="1:4">
+      <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="14">
         <v>11010009915</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
+    <row r="58" s="3" customFormat="1" spans="1:4">
+      <c r="A58" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
+    <row r="59" s="3" customFormat="1" spans="1:4">
+      <c r="A59" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="16">
         <v>11010009907</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2654,256 +2669,256 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -540,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +923,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,16 +947,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -959,89 +965,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,7 +1060,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1072,10 +1081,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1084,13 +1093,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1647,1278 +1665,1278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>11010009923</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>11010009974</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>11010009907</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>11010009915</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>11010009923</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>11010009907</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>11010009915</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>11010009974</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="7">
         <v>11010009974</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="7">
         <v>11010009915</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="7">
         <v>11010009923</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="6">
-        <v>11021217271</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="7">
+        <v>11021217271</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="7">
         <v>11010009907</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:4">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="13">
         <v>11010009923</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:4">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:4">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:4">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:4">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:4">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="13">
         <v>11010009907</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:4">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="13">
         <v>11010009915</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:4">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:4">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="12">
-        <v>11021217271</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="13">
+        <v>11021217271</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:4">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="13">
         <v>11010009974</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" spans="1:4">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="15">
         <v>11010009923</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" spans="1:4">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" spans="1:4">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" spans="1:4">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="15">
         <v>11010009974</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" spans="1:4">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B54" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" spans="1:4">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" spans="1:4">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C56" s="16" t="s">
+      <c r="B56" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1" spans="1:4">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="15">
         <v>11010009915</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" spans="1:4">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="16">
-        <v>11021217271</v>
-      </c>
-      <c r="C58" s="16" t="s">
+      <c r="B58" s="15">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" spans="1:4">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>11010009907</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="10" t="s">
+    <row r="60" s="4" customFormat="1" spans="1:4">
+      <c r="A60" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="17">
         <v>11010009923</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8" t="s">
+    <row r="61" s="4" customFormat="1" spans="1:4">
+      <c r="A61" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="8" t="s">
+    <row r="62" s="4" customFormat="1" spans="1:4">
+      <c r="A62" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="10" t="s">
+    <row r="63" s="4" customFormat="1" spans="1:4">
+      <c r="A63" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="17">
         <v>11010009974</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
+    <row r="64" s="4" customFormat="1" spans="1:4">
+      <c r="A64" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="8" t="s">
+    <row r="65" s="4" customFormat="1" spans="1:4">
+      <c r="A65" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="B65" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8" t="s">
+    <row r="66" s="4" customFormat="1" spans="1:4">
+      <c r="A66" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="10" t="s">
+    <row r="67" s="4" customFormat="1" spans="1:4">
+      <c r="A67" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="17">
         <v>11010009915</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8" t="s">
+    <row r="68" s="4" customFormat="1" spans="1:4">
+      <c r="A68" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="8">
-        <v>11021217271</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
+    <row r="69" s="4" customFormat="1" spans="1:4">
+      <c r="A69" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="19">
         <v>11010009907</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="10">
-        <v>11021217271</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="10">
-        <v>11021217271</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="11">
+        <v>11021217271</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -540,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +555,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,12 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +929,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,16 +953,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -965,89 +971,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1069,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1075,40 +1087,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1652,8 +1670,8 @@
   <sheetPr/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1665,314 +1683,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>11010009974</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>11010009907</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>11010009915</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>11010009907</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>11010009915</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>11010009974</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:4">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <v>11010009923</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" s="3" customFormat="1" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
@@ -1986,21 +2004,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+    <row r="24" s="3" customFormat="1" spans="1:4">
+      <c r="A24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="13">
         <v>11010009923</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" s="3" customFormat="1" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
@@ -2015,928 +2033,928 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="15">
         <v>11010009923</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="17">
         <v>11010009923</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="15">
         <v>11010009923</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="17">
         <v>11010009923</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>11010009974</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>11010009915</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>11010009923</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="7">
-        <v>11021217271</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9">
+        <v>11021217271</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>11010009907</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:4">
-      <c r="A40" s="13" t="s">
+    <row r="40" s="4" customFormat="1" spans="1:4">
+      <c r="A40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="19">
         <v>11010009923</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:4">
-      <c r="A41" s="13" t="s">
+    <row r="41" s="4" customFormat="1" spans="1:4">
+      <c r="A41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:4">
-      <c r="A42" s="13" t="s">
+    <row r="42" s="4" customFormat="1" spans="1:4">
+      <c r="A42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:4">
-      <c r="A43" s="13" t="s">
+    <row r="43" s="4" customFormat="1" spans="1:4">
+      <c r="A43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:4">
-      <c r="A44" s="13" t="s">
+    <row r="44" s="4" customFormat="1" spans="1:4">
+      <c r="A44" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:4">
-      <c r="A45" s="13" t="s">
+    <row r="45" s="4" customFormat="1" spans="1:4">
+      <c r="A45" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="19">
         <v>11010009907</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:4">
-      <c r="A46" s="13" t="s">
+    <row r="46" s="4" customFormat="1" spans="1:4">
+      <c r="A46" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="19">
         <v>11010009915</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:4">
-      <c r="A47" s="13" t="s">
+    <row r="47" s="4" customFormat="1" spans="1:4">
+      <c r="A47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:4">
-      <c r="A48" s="13" t="s">
+    <row r="48" s="4" customFormat="1" spans="1:4">
+      <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="13">
-        <v>11021217271</v>
-      </c>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="19">
+        <v>11021217271</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:4">
-      <c r="A49" s="13" t="s">
+    <row r="49" s="4" customFormat="1" spans="1:4">
+      <c r="A49" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="19">
         <v>11010009974</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:4">
-      <c r="A50" s="15" t="s">
+    <row r="50" s="5" customFormat="1" spans="1:4">
+      <c r="A50" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="21">
         <v>11010009923</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:4">
-      <c r="A51" s="15" t="s">
+    <row r="51" s="5" customFormat="1" spans="1:4">
+      <c r="A51" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:4">
-      <c r="A52" s="15" t="s">
+    <row r="52" s="5" customFormat="1" spans="1:4">
+      <c r="A52" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:4">
-      <c r="A53" s="15" t="s">
+    <row r="53" s="5" customFormat="1" spans="1:4">
+      <c r="A53" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="21">
         <v>11010009974</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:4">
-      <c r="A54" s="15" t="s">
+    <row r="54" s="5" customFormat="1" spans="1:4">
+      <c r="A54" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:4">
-      <c r="A55" s="15" t="s">
+    <row r="55" s="5" customFormat="1" spans="1:4">
+      <c r="A55" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:4">
-      <c r="A56" s="15" t="s">
+    <row r="56" s="5" customFormat="1" spans="1:4">
+      <c r="A56" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1" spans="1:4">
-      <c r="A57" s="15" t="s">
+    <row r="57" s="5" customFormat="1" spans="1:4">
+      <c r="A57" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="21">
         <v>11010009915</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:4">
-      <c r="A58" s="15" t="s">
+    <row r="58" s="5" customFormat="1" spans="1:4">
+      <c r="A58" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="15">
-        <v>11021217271</v>
-      </c>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="21">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:4">
-      <c r="A59" s="15" t="s">
+    <row r="59" s="5" customFormat="1" spans="1:4">
+      <c r="A59" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="21">
         <v>11010009907</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:4">
-      <c r="A60" s="17" t="s">
+    <row r="60" s="6" customFormat="1" spans="1:4">
+      <c r="A60" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="23">
         <v>11010009923</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" spans="1:4">
-      <c r="A61" s="19" t="s">
+    <row r="61" s="6" customFormat="1" spans="1:4">
+      <c r="A61" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:4">
-      <c r="A62" s="19" t="s">
+    <row r="62" s="6" customFormat="1" spans="1:4">
+      <c r="A62" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C62" s="20" t="s">
+      <c r="B62" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:4">
-      <c r="A63" s="17" t="s">
+    <row r="63" s="6" customFormat="1" spans="1:4">
+      <c r="A63" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="23">
         <v>11010009974</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:4">
-      <c r="A64" s="19" t="s">
+    <row r="64" s="6" customFormat="1" spans="1:4">
+      <c r="A64" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:4">
-      <c r="A65" s="19" t="s">
+    <row r="65" s="6" customFormat="1" spans="1:4">
+      <c r="A65" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:4">
-      <c r="A66" s="19" t="s">
+    <row r="66" s="6" customFormat="1" spans="1:4">
+      <c r="A66" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C66" s="20" t="s">
+      <c r="B66" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:4">
-      <c r="A67" s="17" t="s">
+    <row r="67" s="6" customFormat="1" spans="1:4">
+      <c r="A67" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="23">
         <v>11010009915</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:4">
-      <c r="A68" s="19" t="s">
+    <row r="68" s="6" customFormat="1" spans="1:4">
+      <c r="A68" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="23">
+        <v>11021217271</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:4">
-      <c r="A69" s="19" t="s">
+    <row r="69" s="6" customFormat="1" spans="1:4">
+      <c r="A69" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="23">
         <v>11010009907</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="17">
         <v>11010009923</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="17">
         <v>11010009923</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="17">
+        <v>11021217271</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="11">
-        <v>11021217271</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="17">
+        <v>11021217271</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -540,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,12 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +923,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,16 +947,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -971,89 +965,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,10 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,18 +1090,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1123,10 +1102,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1671,7 +1650,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1683,1278 +1662,1278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>11010009974</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>11010009907</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>11010009915</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>11010009907</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>11010009915</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>11010009974</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="23" s="2" customFormat="1" spans="1:4">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:4">
-      <c r="A24" s="13" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:4">
+      <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:4">
-      <c r="A25" s="11" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:4">
+      <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="15" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:4">
+      <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:4">
+      <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="15" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:4">
+      <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="17" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:4">
+      <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="10">
         <v>11010009923</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>11010009974</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>11010009915</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>11010009923</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="9">
-        <v>11021217271</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="8">
+        <v>11021217271</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>11010009907</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:4">
-      <c r="A40" s="19" t="s">
+    <row r="40" s="3" customFormat="1" spans="1:4">
+      <c r="A40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="12">
         <v>11010009923</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:4">
-      <c r="A41" s="19" t="s">
+    <row r="41" s="3" customFormat="1" spans="1:4">
+      <c r="A41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" spans="1:4">
-      <c r="A42" s="19" t="s">
+    <row r="42" s="3" customFormat="1" spans="1:4">
+      <c r="A42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:4">
-      <c r="A43" s="19" t="s">
+    <row r="43" s="3" customFormat="1" spans="1:4">
+      <c r="A43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:4">
-      <c r="A44" s="19" t="s">
+    <row r="44" s="3" customFormat="1" spans="1:4">
+      <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:4">
-      <c r="A45" s="19" t="s">
+    <row r="45" s="3" customFormat="1" spans="1:4">
+      <c r="A45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="12">
         <v>11010009907</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:4">
-      <c r="A46" s="19" t="s">
+    <row r="46" s="3" customFormat="1" spans="1:4">
+      <c r="A46" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="12">
         <v>11010009915</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:4">
-      <c r="A47" s="19" t="s">
+    <row r="47" s="3" customFormat="1" spans="1:4">
+      <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:4">
-      <c r="A48" s="19" t="s">
+    <row r="48" s="3" customFormat="1" spans="1:4">
+      <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="19">
-        <v>11021217271</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="12">
+        <v>11021217271</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:4">
-      <c r="A49" s="19" t="s">
+    <row r="49" s="3" customFormat="1" spans="1:4">
+      <c r="A49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="12">
         <v>11010009974</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:4">
-      <c r="A50" s="21" t="s">
+    <row r="50" s="4" customFormat="1" spans="1:4">
+      <c r="A50" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="14">
         <v>11010009923</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:4">
-      <c r="A51" s="21" t="s">
+    <row r="51" s="4" customFormat="1" spans="1:4">
+      <c r="A51" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" s="5" customFormat="1" spans="1:4">
-      <c r="A52" s="21" t="s">
+    <row r="52" s="4" customFormat="1" spans="1:4">
+      <c r="A52" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" s="5" customFormat="1" spans="1:4">
-      <c r="A53" s="21" t="s">
+    <row r="53" s="4" customFormat="1" spans="1:4">
+      <c r="A53" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="14">
         <v>11010009974</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:4">
-      <c r="A54" s="21" t="s">
+    <row r="54" s="4" customFormat="1" spans="1:4">
+      <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:4">
-      <c r="A55" s="21" t="s">
+    <row r="55" s="4" customFormat="1" spans="1:4">
+      <c r="A55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:4">
-      <c r="A56" s="21" t="s">
+    <row r="56" s="4" customFormat="1" spans="1:4">
+      <c r="A56" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="1" spans="1:4">
-      <c r="A57" s="21" t="s">
+    <row r="57" s="4" customFormat="1" spans="1:4">
+      <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="14">
         <v>11010009915</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:4">
-      <c r="A58" s="21" t="s">
+    <row r="58" s="4" customFormat="1" spans="1:4">
+      <c r="A58" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="21">
-        <v>11021217271</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="14">
+        <v>11021217271</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:4">
-      <c r="A59" s="21" t="s">
+    <row r="59" s="4" customFormat="1" spans="1:4">
+      <c r="A59" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="14">
         <v>11010009907</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:4">
-      <c r="A60" s="23" t="s">
+    <row r="60" s="5" customFormat="1" spans="1:4">
+      <c r="A60" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="16">
         <v>11010009923</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:4">
-      <c r="A61" s="23" t="s">
+    <row r="61" s="5" customFormat="1" spans="1:4">
+      <c r="A61" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:4">
-      <c r="A62" s="23" t="s">
+    <row r="62" s="5" customFormat="1" spans="1:4">
+      <c r="A62" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C62" s="24" t="s">
+      <c r="B62" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" s="6" customFormat="1" spans="1:4">
-      <c r="A63" s="23" t="s">
+    <row r="63" s="5" customFormat="1" spans="1:4">
+      <c r="A63" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="16">
         <v>11010009974</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" s="6" customFormat="1" spans="1:4">
-      <c r="A64" s="23" t="s">
+    <row r="64" s="5" customFormat="1" spans="1:4">
+      <c r="A64" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="B64" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" s="6" customFormat="1" spans="1:4">
-      <c r="A65" s="23" t="s">
+    <row r="65" s="5" customFormat="1" spans="1:4">
+      <c r="A65" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:4">
-      <c r="A66" s="23" t="s">
+    <row r="66" s="5" customFormat="1" spans="1:4">
+      <c r="A66" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:4">
-      <c r="A67" s="23" t="s">
+    <row r="67" s="5" customFormat="1" spans="1:4">
+      <c r="A67" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="16">
         <v>11010009915</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:4">
-      <c r="A68" s="23" t="s">
+    <row r="68" s="5" customFormat="1" spans="1:4">
+      <c r="A68" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="23">
-        <v>11021217271</v>
-      </c>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="16">
+        <v>11021217271</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:4">
-      <c r="A69" s="23" t="s">
+    <row r="69" s="5" customFormat="1" spans="1:4">
+      <c r="A69" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="16">
         <v>11010009907</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="18">
         <v>11010009923</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="18">
         <v>11010009923</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="17">
-        <v>11021217271</v>
-      </c>
-      <c r="C72" s="18" t="s">
+      <c r="B72" s="18">
+        <v>11021217271</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="17">
-        <v>11021217271</v>
-      </c>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="18">
+        <v>11021217271</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>FTNumber</t>
   </si>
@@ -41,82 +41,73 @@
     <t>案例</t>
   </si>
   <si>
-    <t>SGL25002HDCCGFDD</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>T24-SGPH-001-1</t>
-  </si>
-  <si>
-    <t>SG holiday</t>
-  </si>
-  <si>
-    <t>PACS008</t>
-  </si>
-  <si>
-    <t>SGL25002LG0CDHFG</t>
+    <t>SGL25003FLJD0DBF</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>T24-SGPH-002-1</t>
+  </si>
+  <si>
+    <t>Other holiday</t>
+  </si>
+  <si>
+    <t>MT103</t>
+  </si>
+  <si>
+    <t>SGL25003MJKBDLGL</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL25003CJ0CCGFJ</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>CBPRPACS008</t>
+  </si>
+  <si>
+    <t>SGL25003MKHCHFLC</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SGL25003GLCHGDGD</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>SGL25003DKFDHFFM</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>MT103</t>
-  </si>
-  <si>
-    <t>SGL250020DLJDLKJ</t>
+    <t>T24-SGPH-002-2</t>
+  </si>
+  <si>
+    <t>SGL25003FJHML0MM</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>CBPRPACS008</t>
-  </si>
-  <si>
-    <t>SGL25002HBMF0DMK</t>
+    <t>SGL25003B0H0G0DJ</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
-    <t xml:space="preserve">SGL25002DMHCHHCD </t>
+    <t>SGL25003M0MKMCJG</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>SGL25002BJ0BFDMC</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>T24-SGPH-001-2</t>
-  </si>
-  <si>
-    <t>SGL25002CHCGBLMB</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>SGL25002BMBBCFBM</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SGL250020LMMGGFC</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>SGL25002JHCFKK0L</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -769,11 +760,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1311,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1344,15 +1335,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>11010009923</v>
+        <v>11010009915</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
@@ -1364,372 +1355,352 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>11021217271</v>
+        <v>11010009907</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="19.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11010009974</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
-        <v>11021217271</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="19.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>11021217271</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="19.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>11021217271</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="19.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11021217271</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
-        <v>11010009915</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="19.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11021217271</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
-        <v>11010009907</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="19.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11021217271</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3">
-        <v>11010009974</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="19.4" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="19.4" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>11021217271</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="19.4" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <v>11021217271</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="InComing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,10 +38,34 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL23349JBFBKDFD</t>
+    <t>SGL25009FCHCGCDK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGL25009MMMMKKFK</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SGL25009MGJBGDBB</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SGL25009BDCDBMGB</t>
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>SGL25009FCJLFLCB</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
 </sst>
 </file>
@@ -49,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -533,19 +557,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889"/>
@@ -1245,14 +1269,58 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>11020433604</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>11010009923</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FTNumber</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>CNY</t>
+  </si>
+  <si>
+    <t>SGL25009LKBD0KGF</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SGL25009DLCDLLDB</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL25009DGD0HJJL</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SGL25009HHBLHKGM</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SGL250090LJKKF0K</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -1245,13 +1275,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889"/>
@@ -1323,6 +1353,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11010009915</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11010009907</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11010009974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FTNumber</t>
   </si>
@@ -66,36 +66,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>SGL25009LKBD0KGF</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>SGL25009DLCDLLDB</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>SGL25009DGD0HJJL</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SGL25009HHBLHKGM</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>SGL250090LJKKF0K</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1248,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1353,60 +1323,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11010009915</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>11010009907</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>11010009974</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11021217271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
-        <v>11021217271</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="InComing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FTNumber</t>
   </si>
@@ -38,10 +38,34 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>SGL23349JBFBKDFD</t>
+    <t>SGL25009FCHCGCDK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGL25009MMMMKKFK</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SGL25009MGJBGDBB</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SGL25009BDCDBMGB</t>
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>SGL25009FCJLFLCB</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
 </sst>
 </file>
@@ -49,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -533,19 +557,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889"/>
@@ -1245,15 +1269,74 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>11020433604</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>11010009923</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FTNumber</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>CNY</t>
+  </si>
+  <si>
+    <t>SGL25009LKBD0KGF</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SGL25009DLCDLLDB</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SGL25009DGD0HJJL</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SGL25009HHBLHKGM</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SGL250090LJKKF0K</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1278,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1323,20 +1353,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11010009915</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11010009907</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11010009974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>FTNumber</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>NOK</t>
+  </si>
+  <si>
+    <t>SGL25009DM0BJM0H</t>
+  </si>
+  <si>
+    <t>SGL25009B0LGDMJJ</t>
+  </si>
+  <si>
+    <t>SGL25009JMH0LJLJ</t>
+  </si>
+  <si>
+    <t>SGL25009GHJKBHCF</t>
+  </si>
+  <si>
+    <t>SGL25009FMGBGLFM</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1408,6 +1423,61 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11010009915</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11010009907</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11010009974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>FTNumber</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>SGL25009FMGBGLFM</t>
+  </si>
+  <si>
+    <t>SGL25009DG0KJMHB</t>
+  </si>
+  <si>
+    <t>SGL25009M0BKJBCB</t>
+  </si>
+  <si>
+    <t>SGL25009LBKHLMGB</t>
+  </si>
+  <si>
+    <t>SGL25009JBJLJCDB</t>
+  </si>
+  <si>
+    <t>SGL25009HDLDFHJB</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1478,6 +1493,61 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>FTNumber</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>SGL25009HDLDFHJB</t>
+  </si>
+  <si>
+    <t>SGL25009MGCGKLFL</t>
+  </si>
+  <si>
+    <t>SGL25009HJBBFLB0</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1548,6 +1554,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>FTNumber</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>SGL25009HJBBFLB0</t>
+  </si>
+  <si>
+    <t>SGL25009JBBHKDJ0</t>
+  </si>
+  <si>
+    <t>SGL250090LLHGJGG</t>
+  </si>
+  <si>
+    <t>SGL25009FDMFDJBK</t>
+  </si>
+  <si>
+    <t>SGL25009GKGJH0CD</t>
+  </si>
+  <si>
+    <t>SGL25009GD0CCLGB</t>
   </si>
 </sst>
 </file>
@@ -144,13 +159,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -638,137 +659,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1311,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1576,6 +1600,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>FTNumber</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>SGL25009GD0CCLGB</t>
+  </si>
+  <si>
+    <t>SGL25009BFGFCC0L</t>
+  </si>
+  <si>
+    <t>SGL25009GCHCFBLB</t>
+  </si>
+  <si>
+    <t>SGL25009KJFML0JG</t>
+  </si>
+  <si>
+    <t>SGL25009LDFDCGLH</t>
+  </si>
+  <si>
+    <t>SGL25009HMC0CJ0J</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1655,6 +1670,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11010009915</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>11010009907</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>11010009974</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>FTNumber</t>
   </si>
@@ -162,6 +162,21 @@
   </si>
   <si>
     <t>SGL25009HMC0CJ0J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL25009HMH0MLGH </t>
+  </si>
+  <si>
+    <t>SGL250090CHJFHJJ</t>
+  </si>
+  <si>
+    <t>SGL25009JF00DMJK</t>
+  </si>
+  <si>
+    <t>SGL25009GJCFLBHK</t>
+  </si>
+  <si>
+    <t>SGL25009BHJFMKJL</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C33"/>
+      <selection activeCell="A34" sqref="A34:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1725,6 +1740,61 @@
         <v>22</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2">
+        <v>11010009915</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2">
+        <v>11010009907</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2">
+        <v>11021226114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11021226122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -170,13 +170,13 @@
     <t>SGL250090CHJFHJJ</t>
   </si>
   <si>
-    <t>SGL25009JF00DMJK</t>
+    <t>SGL25014DGGKLMKH</t>
   </si>
   <si>
     <t>SGL25009GJCFLBHK</t>
   </si>
   <si>
-    <t>SGL25009BHJFMKJL</t>
+    <t>SGL25014CHBBDHKK</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1767,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="2">
-        <v>11021226114</v>
+        <v>11010009974</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1789,7 +1789,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>11021226122</v>
+        <v>11021217271</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>FTNumber</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>SGL25014CHBBDHKK</t>
+  </si>
+  <si>
+    <t>SGL25009KLLGJJB0</t>
+  </si>
+  <si>
+    <t>SGL25009BMLMHJHK</t>
+  </si>
+  <si>
+    <t>SGL2500900DFGHJG</t>
+  </si>
+  <si>
+    <t>SGL25009KC00GFGM</t>
+  </si>
+  <si>
+    <t>SGL25009J0DDBFJH</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C38"/>
+      <selection activeCell="A39" sqref="A39:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1795,6 +1810,61 @@
         <v>22</v>
       </c>
     </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2">
+        <v>11021217271</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/T24Excel/InComing.xlsx
+++ b/src/test/resources/testData/T24Excel/InComing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>FTNumber</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>SGL25009J0DDBFJH</t>
+  </si>
+  <si>
+    <t>SGL25009CGLKDFLL</t>
+  </si>
+  <si>
+    <t>SGL25009BFDFHJBJ</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C43"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1865,6 +1871,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2">
+        <v>11010009923</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
